--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgcp-my.sharepoint.com/personal/jake_barrett_blend360_com/Documents/Documents/Misc/mario-kart-leaderboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{5098D61A-726F-4FBD-9656-F3953B03AF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72FAE37B-84BF-486A-8405-2E869CDB2A56}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{5098D61A-726F-4FBD-9656-F3953B03AF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34EDCAC3-553A-495F-9E92-23332D17B6A3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>p1</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Jake</t>
   </si>
   <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Peach</t>
-  </si>
-  <si>
     <t>player</t>
   </si>
   <si>
@@ -81,40 +75,28 @@
     <t>Edinburgh</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
     <t>Data Engineering</t>
   </si>
   <si>
-    <t>Data Consultancy</t>
-  </si>
-  <si>
-    <t>mike.jpg</t>
-  </si>
-  <si>
-    <t>Tegan</t>
-  </si>
-  <si>
-    <t>Aparna</t>
-  </si>
-  <si>
-    <t>aparna.jpg</t>
-  </si>
-  <si>
-    <t>tegan.jpg</t>
-  </si>
-  <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Donkey Kong</t>
+  </si>
+  <si>
+    <t>Justine</t>
+  </si>
+  <si>
+    <t>justine.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,10 +142,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,11 +483,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -523,42 +506,32 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.0694444444444445E-3</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45971</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.2299768518518519E-3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45974</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>87.9</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45972</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,26 +540,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90691743-B6C2-4394-BD43-DBE028A2778E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -594,13 +567,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -608,41 +581,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgcp-my.sharepoint.com/personal/jake_barrett_blend360_com/Documents/Documents/Misc/mario-kart-leaderboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{5098D61A-726F-4FBD-9656-F3953B03AF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34EDCAC3-553A-495F-9E92-23332D17B6A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="results" sheetId="1" r:id="rId1"/>
     <sheet name="players" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>p1</t>
   </si>
@@ -51,9 +51,33 @@
     <t>time</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Justine</t>
+  </si>
+  <si>
     <t>Jake</t>
   </si>
   <si>
+    <t>Donkey Kong</t>
+  </si>
+  <si>
+    <t>03:12.670</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Aidan B</t>
+  </si>
+  <si>
+    <t>Toad</t>
+  </si>
+  <si>
+    <t>03:00.809</t>
+  </si>
+  <si>
     <t>player</t>
   </si>
   <si>
@@ -75,28 +99,22 @@
     <t>Edinburgh</t>
   </si>
   <si>
+    <t>justine.jpg</t>
+  </si>
+  <si>
     <t>Data Engineering</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Donkey Kong</t>
-  </si>
-  <si>
-    <t>Justine</t>
-  </si>
-  <si>
-    <t>justine.jpg</t>
+    <t>mike.jpg</t>
+  </si>
+  <si>
+    <t>aidanb.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -143,9 +161,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,6 +183,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,13 +509,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -502,36 +528,46 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2.2299768518518519E-3</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="3">
         <v>45974</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45978</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -540,54 +576,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90691743-B6C2-4394-BD43-DBE028A2778E}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgcp-my.sharepoint.com/personal/jake_barrett_blend360_com/Documents/Documents/Misc/mario-kart-leaderboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2888E9-9C5D-42FA-B051-CE10DE83B714}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>p1</t>
   </si>
@@ -109,13 +109,49 @@
   </si>
   <si>
     <t>aidanb.jpg</t>
+  </si>
+  <si>
+    <t>Tegan</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>03:21.417</t>
+  </si>
+  <si>
+    <t>03:20.428</t>
+  </si>
+  <si>
+    <t>tegan.jpg</t>
+  </si>
+  <si>
+    <t>jack.jpg</t>
+  </si>
+  <si>
+    <t>cameron.jpg</t>
+  </si>
+  <si>
+    <t>sam.jpg</t>
+  </si>
+  <si>
+    <t>Commercial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +163,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -168,6 +211,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,10 +228,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8781317C-A9B4-48E6-8EF1-3A51DE845F1C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,6 +610,61 @@
         <v>45978</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -576,10 +672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90691743-B6C2-4394-BD43-DBE028A2778E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,6 +753,62 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgcp-my.sharepoint.com/personal/jake_barrett_blend360_com/Documents/Documents/Misc/mario-kart-leaderboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2888E9-9C5D-42FA-B051-CE10DE83B714}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E3B00CD-31B7-4B19-AB7D-E2F06A6FAC87}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>p1</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>Commercial</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>andrew.jpg</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>james.jpg</t>
+  </si>
+  <si>
+    <t>03:13.556</t>
   </si>
 </sst>
 </file>
@@ -549,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8781317C-A9B4-48E6-8EF1-3A51DE845F1C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,7 +663,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D6" s="4"/>
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45981</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D7" s="4"/>
@@ -672,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90691743-B6C2-4394-BD43-DBE028A2778E}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,6 +841,34 @@
         <v>19</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgcp-my.sharepoint.com/personal/jake_barrett_blend360_com/Documents/Documents/Misc/mario-kart-leaderboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E3B00CD-31B7-4B19-AB7D-E2F06A6FAC87}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06FE28D3-E4C6-4315-83E3-6ED000DCA9A3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>p1</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>03:13.556</t>
+  </si>
+  <si>
+    <t>Mii</t>
+  </si>
+  <si>
+    <t>02:50.610</t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +686,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D7" s="4"/>
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45982</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D8" s="4"/>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgcp-my.sharepoint.com/personal/jake_barrett_blend360_com/Documents/Documents/Misc/mario-kart-leaderboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06FE28D3-E4C6-4315-83E3-6ED000DCA9A3}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F670C90-BE2B-4516-A028-25CBA8226DE8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>p1</t>
   </si>
@@ -169,6 +169,33 @@
   </si>
   <si>
     <t>02:50.610</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Bowser</t>
+  </si>
+  <si>
+    <t>03:26.835</t>
+  </si>
+  <si>
+    <t>megan.jpg</t>
+  </si>
+  <si>
+    <t>03:20.572</t>
+  </si>
+  <si>
+    <t>Aidan</t>
+  </si>
+  <si>
+    <t>Carly</t>
+  </si>
+  <si>
+    <t>carly.jpg</t>
+  </si>
+  <si>
+    <t>03:11.402</t>
   </si>
 </sst>
 </file>
@@ -219,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,6 +264,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8781317C-A9B4-48E6-8EF1-3A51DE845F1C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,13 +731,55 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D8" s="4"/>
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45986</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="4"/>
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45986</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D10" s="4"/>
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45986</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" s="4"/>
@@ -724,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90691743-B6C2-4394-BD43-DBE028A2778E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -889,6 +959,34 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgcp-my.sharepoint.com/personal/jake_barrett_blend360_com/Documents/Documents/Misc/mario-kart-leaderboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F670C90-BE2B-4516-A028-25CBA8226DE8}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7F3B647-92DF-4B33-BF2F-8E841E822203}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>p1</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>03:20.572</t>
-  </si>
-  <si>
-    <t>Aidan</t>
   </si>
   <si>
     <t>Carly</t>
@@ -246,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,7 +261,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8781317C-A9B4-48E6-8EF1-3A51DE845F1C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,16 +762,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3">
         <v>45986</v>
@@ -796,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90691743-B6C2-4394-BD43-DBE028A2778E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -960,7 +956,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
@@ -974,11 +970,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgcp-my.sharepoint.com/personal/jake_barrett_blend360_com/Documents/Documents/Misc/mario-kart-leaderboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7F3B647-92DF-4B33-BF2F-8E841E822203}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F66070-74E7-42A8-AA23-E4825F9DFC8E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>jake.jpg</t>
   </si>
   <si>
-    <t>Data Science</t>
-  </si>
-  <si>
     <t>Edinburgh</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>03:11.402</t>
+  </si>
+  <si>
+    <t>DS &amp; BI</t>
   </si>
 </sst>
 </file>
@@ -597,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8781317C-A9B4-48E6-8EF1-3A51DE845F1C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -660,16 +660,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="8">
         <v>45979</v>
@@ -677,16 +677,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="8">
         <v>45979</v>
@@ -694,16 +694,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>45981</v>
@@ -714,13 +714,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E7" s="3">
         <v>45982</v>
@@ -728,16 +728,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="E8" s="3">
         <v>45986</v>
@@ -751,10 +751,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3">
         <v>45986</v>
@@ -765,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>45986</v>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90691743-B6C2-4394-BD43-DBE028A2778E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,10 +823,10 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -834,13 +834,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -848,13 +848,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
@@ -862,125 +862,125 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wgcp-my.sharepoint.com/personal/jake_barrett_blend360_com/Documents/Documents/Misc/mario-kart-leaderboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F66070-74E7-42A8-AA23-E4825F9DFC8E}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{B788C774-AD90-4FC9-91A3-57F8CB191C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4452C5F-FBF7-4975-97F1-4AF294696A9B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B36101E-7D2D-4464-B23A-AEF16CEFC47C}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>p1</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>DS &amp; BI</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>rob.jpg</t>
+  </si>
+  <si>
+    <t>02:47.007</t>
+  </si>
+  <si>
+    <t>Luigi</t>
+  </si>
+  <si>
+    <t>02:45.899</t>
+  </si>
+  <si>
+    <t>02:56.429</t>
   </si>
 </sst>
 </file>
@@ -595,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8781317C-A9B4-48E6-8EF1-3A51DE845F1C}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -778,10 +796,55 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D11" s="4"/>
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45988</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="4"/>
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45988</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -790,10 +853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90691743-B6C2-4394-BD43-DBE028A2778E}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -983,6 +1046,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
